--- a/Protokolle/Arbeitsaufteilung.xlsx
+++ b/Protokolle/Arbeitsaufteilung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patrick-LAPTOP\Google Drive\[Schule]\FH\[Lehrveranstaltungen]\WS1\ITP\FHTW Robotics Challenge 2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="46E8B8335EDB28B6E938F6AC53E6F5D192709CB8" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{E5AF7933-0722-4EDC-967D-A74C10E9E604}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="46E8B8335EDB28B6E938F6AC53E6F5D192709CB8" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{7C33BC57-A961-4960-AB6F-8E18D65E64AC}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
   <si>
     <t>Name</t>
   </si>
@@ -36,10 +36,19 @@
     <t>LOH</t>
   </si>
   <si>
+    <t>Programmieren</t>
+  </si>
+  <si>
     <t>Potesil</t>
   </si>
   <si>
-    <t>Kment</t>
+    <t>Dokumentation</t>
+  </si>
+  <si>
+    <t>Konstruktion</t>
+  </si>
+  <si>
+    <t>Dittmann</t>
   </si>
   <si>
     <t>Klaassen</t>
@@ -74,7 +83,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -93,31 +102,13 @@
     </border>
     <border>
       <left/>
-      <right/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -162,6 +153,37 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
       <top/>
       <bottom style="medium">
         <color indexed="64"/>
@@ -172,45 +194,40 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -529,7 +546,7 @@
   <dimension ref="B2:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
@@ -538,94 +555,122 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4">
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="16"/>
-    </row>
-    <row r="3" spans="2:4" ht="15" thickBot="1"/>
-    <row r="4" spans="2:4">
-      <c r="B4" s="13" t="s">
+      <c r="D2" s="5"/>
+    </row>
+    <row r="3" spans="2:4" ht="15"/>
+    <row r="4" spans="2:4" ht="15">
+      <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="9"/>
-    </row>
-    <row r="5" spans="2:4">
-      <c r="B5" s="14"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="10"/>
-    </row>
-    <row r="6" spans="2:4" ht="15" thickBot="1">
-      <c r="B6" s="15"/>
-      <c r="C6" s="8"/>
+      <c r="C4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="7"/>
+    </row>
+    <row r="5" spans="2:4" ht="15">
+      <c r="B5" s="3"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="9"/>
+    </row>
+    <row r="6" spans="2:4" ht="15">
+      <c r="B6" s="4"/>
+      <c r="C6" s="10"/>
       <c r="D6" s="11"/>
     </row>
-    <row r="7" spans="2:4" ht="15" thickBot="1"/>
-    <row r="8" spans="2:4">
-      <c r="B8" s="13" t="s">
+    <row r="7" spans="2:4" ht="15"/>
+    <row r="8" spans="2:4" ht="15">
+      <c r="B8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="7"/>
+    </row>
+    <row r="9" spans="2:4" ht="15">
+      <c r="B9" s="3"/>
+      <c r="C9" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="9"/>
+    </row>
+    <row r="10" spans="2:4" ht="15">
+      <c r="B10" s="4"/>
+      <c r="C10" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="9"/>
-    </row>
-    <row r="9" spans="2:4">
-      <c r="B9" s="14"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="10"/>
-    </row>
-    <row r="10" spans="2:4" ht="15" thickBot="1">
-      <c r="B10" s="15"/>
-      <c r="C10" s="8"/>
       <c r="D10" s="11"/>
     </row>
-    <row r="11" spans="2:4" ht="15" thickBot="1"/>
-    <row r="12" spans="2:4">
-      <c r="B12" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="2:4">
-      <c r="B13" s="14"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="3"/>
-    </row>
-    <row r="14" spans="2:4" ht="15" thickBot="1">
-      <c r="B14" s="15"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="5"/>
+    <row r="11" spans="2:4" ht="15"/>
+    <row r="12" spans="2:4" ht="15">
+      <c r="B12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="7"/>
+    </row>
+    <row r="13" spans="2:4" ht="15">
+      <c r="B13" s="3"/>
+      <c r="C13" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="9"/>
+    </row>
+    <row r="14" spans="2:4" ht="15">
+      <c r="B14" s="4"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="11"/>
     </row>
     <row r="15" spans="2:4" ht="15"/>
     <row r="16" spans="2:4" ht="15">
-      <c r="B16" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="1"/>
+      <c r="B16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="7"/>
     </row>
     <row r="17" spans="2:4" ht="15">
-      <c r="B17" s="14"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="9"/>
     </row>
     <row r="18" spans="2:4" ht="15">
-      <c r="B18" s="15"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="5"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="11"/>
     </row>
     <row r="19" spans="2:4" ht="15"/>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="17">
+    <mergeCell ref="C18:D18"/>
     <mergeCell ref="B4:B6"/>
     <mergeCell ref="B8:B10"/>
     <mergeCell ref="B12:B14"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="B16:B18"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Protokolle/Arbeitsaufteilung.xlsx
+++ b/Protokolle/Arbeitsaufteilung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patrick-LAPTOP\Google Drive\[Schule]\FH\[Lehrveranstaltungen]\WS1\ITP\FHTW Robotics Challenge 2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="26" documentId="46E8B8335EDB28B6E938F6AC53E6F5D192709CB8" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{7C33BC57-A961-4960-AB6F-8E18D65E64AC}"/>
+  <xr:revisionPtr revIDLastSave="33" documentId="46E8B8335EDB28B6E938F6AC53E6F5D192709CB8" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{F1E2E71D-90FF-4373-B0DE-6E970BE82664}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
     <t>Name</t>
   </si>
@@ -36,7 +36,10 @@
     <t>LOH</t>
   </si>
   <si>
-    <t>Programmieren</t>
+    <t>Programmieren EV3 Funk.</t>
+  </si>
+  <si>
+    <t>Programmieren AWS</t>
   </si>
   <si>
     <t>Potesil</t>
@@ -51,7 +54,13 @@
     <t>Dittmann</t>
   </si>
   <si>
+    <t>Programmieren AWS</t>
+  </si>
+  <si>
     <t>Klaassen</t>
+  </si>
+  <si>
+    <t>Programm AWS</t>
   </si>
 </sst>
 </file>
@@ -199,6 +208,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -221,12 +236,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -546,7 +555,7 @@
   <dimension ref="B2:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
@@ -558,102 +567,107 @@
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="5"/>
+      <c r="D2" s="7"/>
     </row>
     <row r="3" spans="2:4" ht="15"/>
     <row r="4" spans="2:4" ht="15">
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="7"/>
+      <c r="D4" s="9"/>
     </row>
     <row r="5" spans="2:4" ht="15">
-      <c r="B5" s="3"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="9"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="11"/>
     </row>
     <row r="6" spans="2:4" ht="15">
-      <c r="B6" s="4"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="11"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="3"/>
     </row>
     <row r="7" spans="2:4" ht="15"/>
     <row r="8" spans="2:4" ht="15">
-      <c r="B8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="6" t="s">
+      <c r="B8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="7"/>
+      <c r="C8" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="9"/>
     </row>
     <row r="9" spans="2:4" ht="15">
-      <c r="B9" s="3"/>
-      <c r="C9" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="9"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="11"/>
     </row>
     <row r="10" spans="2:4" ht="15">
-      <c r="B10" s="4"/>
-      <c r="C10" s="10" t="s">
+      <c r="B10" s="6"/>
+      <c r="C10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="11"/>
+      <c r="D10" s="3"/>
     </row>
     <row r="11" spans="2:4" ht="15"/>
     <row r="12" spans="2:4" ht="15">
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="9"/>
+    </row>
+    <row r="13" spans="2:4" ht="15">
+      <c r="B13" s="5"/>
+      <c r="C13" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" s="7"/>
-    </row>
-    <row r="13" spans="2:4" ht="15">
-      <c r="B13" s="3"/>
-      <c r="C13" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="9"/>
+      <c r="D13" s="11"/>
     </row>
     <row r="14" spans="2:4" ht="15">
-      <c r="B14" s="4"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="11"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="3"/>
     </row>
     <row r="15" spans="2:4" ht="15"/>
     <row r="16" spans="2:4" ht="15">
-      <c r="B16" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="6" t="s">
+      <c r="B16" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="7"/>
+      <c r="D16" s="9"/>
     </row>
     <row r="17" spans="2:4" ht="15">
-      <c r="B17" s="3"/>
-      <c r="C17" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" s="9"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="11"/>
     </row>
     <row r="18" spans="2:4" ht="15">
-      <c r="B18" s="4"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="11"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="3"/>
     </row>
     <row r="19" spans="2:4" ht="15"/>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="C17:D17"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="B4:B6"/>
     <mergeCell ref="B8:B10"/>
@@ -670,7 +684,6 @@
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
